--- a/src/assets/data/info.xlsx
+++ b/src/assets/data/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/win-air/Documents/Study/47th-web/src/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F19EB8-3323-944E-8899-15C4536D6C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6995C2-DFF0-2F4B-A3B6-9A142C0B8893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" xr2:uid="{F526FC34-6726-9340-9C7C-462111DE0477}"/>
+    <workbookView xWindow="36260" yWindow="11980" windowWidth="34200" windowHeight="21100" xr2:uid="{F526FC34-6726-9340-9C7C-462111DE0477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,9 +227,6 @@
     <t>가을의 여운</t>
   </si>
   <si>
-    <t>가을 햇살이 조용히 비추는 골목길. 붉은 벽돌에 스며든 햇살은 계절의 온기를 머금고, 나뭇잎이 이따금 떨어지는 모습은 가을의 끝자락을 암시한다. 이 골목은 마치 계절이 남긴 발자국처럼, 사라져가는 가을의 흔적을 간직한 채 시간 속에 머물러 있다.</t>
-  </si>
-  <si>
     <t>SONY ZV-E10, 16-50 F3.5-5.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,9 +546,6 @@
     <t>여유</t>
   </si>
   <si>
-    <t>끝없이 펼쳐진 도시의 고층 건물들 뒤로, 바쁘게 흘러가는 시간 속에서 잠시 멈춰 선 가족의 모습. 푸른 하늘과 강물이 조화를 이루는 이곳에서, 사람들은 잠시나마 일상의 무게를 내려놓고 자연과 함께 쉼을 찾는다. 도시의 복잡함과 자연의 고요함이 공존하는 이 순간, 우리는 비로소 삶의 여유를 느낄 수 있다.</t>
-  </si>
-  <si>
     <t>사진 주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,6 +638,12 @@
   </si>
   <si>
     <t>src/assets/images/webp/4겨울_46기_유용규_국제학부.webp</t>
+  </si>
+  <si>
+    <t>가을 햇살이 조용히 비추는 골목길. 나뭇잎이 이따금 떨어지는 모습은 가을의 끝자락을 암시한다. 이 골목은 계절이 남긴 발자국처럼, 사라져가는 가을을 간직한 채 머물러 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">끝없이 펼쳐진 도시의 건물들 뒤로, 잠시 멈춰 선 사람들. 푸른 하늘과 강물이 조화를 이루는 이곳에서, 사람들은 잠시나마 일상의 무게를 내려놓고 자연과 함께 쉼을 찾는다. </t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1217,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20">
@@ -1229,22 +1229,22 @@
         <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="40">
@@ -1256,25 +1256,25 @@
         <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="100">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60">
       <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -1283,22 +1283,22 @@
         <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="40">
@@ -1316,16 +1316,16 @@
         <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="40">
@@ -1337,22 +1337,22 @@
         <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20">
@@ -1370,7 +1370,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>33</v>
@@ -1379,7 +1379,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60">
@@ -1397,7 +1397,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>35</v>
@@ -1406,7 +1406,7 @@
         <v>36</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60">
@@ -1430,10 +1430,10 @@
         <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20">
@@ -1451,7 +1451,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>39</v>
@@ -1460,7 +1460,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="40">
@@ -1472,22 +1472,22 @@
         <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40">
@@ -1505,7 +1505,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>41</v>
@@ -1514,7 +1514,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="40">
@@ -1526,22 +1526,22 @@
         <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="40">
@@ -1553,22 +1553,22 @@
         <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60">
@@ -1580,22 +1580,22 @@
         <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20">
@@ -1613,7 +1613,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>44</v>
@@ -1622,7 +1622,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="40">
@@ -1640,16 +1640,16 @@
         <v>30</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20">
@@ -1661,22 +1661,22 @@
         <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20">
@@ -1694,16 +1694,16 @@
         <v>31</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="40">
@@ -1715,22 +1715,22 @@
         <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20">
@@ -1742,22 +1742,22 @@
         <v>46</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I21" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="40">
@@ -1784,10 +1784,10 @@
         <v>42</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="80">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60">
       <c r="A23" s="9"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
@@ -1802,16 +1802,16 @@
         <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20">
@@ -1823,22 +1823,22 @@
         <v>41</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="I24" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="40">
@@ -1850,22 +1850,22 @@
         <v>42</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="I25" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="40">
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>50</v>
@@ -1892,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20">
@@ -1904,22 +1904,22 @@
         <v>44</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="60">
@@ -1931,22 +1931,22 @@
         <v>44</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60">
@@ -1958,22 +1958,22 @@
         <v>45</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="I29" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="21" thickBot="1">
@@ -1985,22 +1985,22 @@
         <v>46</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="I30" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:8">

--- a/src/assets/data/info.xlsx
+++ b/src/assets/data/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/win-air/Documents/Study/47th-web/src/assets/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/win-air/Documents/GitHub/47th-web/src/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6995C2-DFF0-2F4B-A3B6-9A142C0B8893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3D6362-5BD0-104C-94AB-ADB43CAFB0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36260" yWindow="11980" windowWidth="34200" windowHeight="21100" xr2:uid="{F526FC34-6726-9340-9C7C-462111DE0477}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="17100" windowHeight="21360" xr2:uid="{F526FC34-6726-9340-9C7C-462111DE0477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,100 +550,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/assets/images/webp/1봄_42기_김성근_전자재료공학과.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/1봄_45기_경준하_경영학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/1봄_45기_황서진_컴퓨터정보공학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/1봄_46기_김가영_미디어커뮤니케이션학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/1봄_46기_이재명_미디어커뮤니케이션.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/2여름_42기_김성근_전자재료공학과.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/2여름_42기_변지욱_미디어커뮤니케이션학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/2여름_43기_박하민_건축공학과.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/2여름_43기_신해원_경영학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/2여름_44기_곽철우_정보융합학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/2여름_45기_안예원_국제통상학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/2여름_46기_박예서_전자공학과.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/2여름_46기_배중근_국제학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/2여름_46기_이찬영_국제통상학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/2여름_46기_정성호_동북아문화산업학부.webp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/assets/images/webp/3가을_41기_이민우_화학과.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/3가을_45기_안세은_미디어커뮤니케이션학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/3가을_46기_강민서_전자공학과.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/3가을_46기_박지원_동북아문화산업학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/3가을_46기_방여원_경영학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/3가을_46기_송희수_정보융합학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/3가을_46기_윤영수_미디어커뮤니케이션.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/4겨울_41기_홍자형_스포츠융합과학과.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/4겨울_42기_백채원_영어산업학과.webp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/assets/images/webp/4겨울_42기_최승아_컴정공.webp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/assets/images/webp/4겨울_44기_이가영_미디어커뮤니케이션학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/4겨울_44기_이아란_정보융합학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/4겨울_46기_김유민_정보융합학부.webp</t>
-  </si>
-  <si>
-    <t>src/assets/images/webp/4겨울_46기_유용규_국제학부.webp</t>
-  </si>
-  <si>
     <t>가을 햇살이 조용히 비추는 골목길. 나뭇잎이 이따금 떨어지는 모습은 가을의 끝자락을 암시한다. 이 골목은 계절이 남긴 발자국처럼, 사라져가는 가을을 간직한 채 머물러 있다.</t>
   </si>
   <si>
     <t xml:space="preserve">끝없이 펼쳐진 도시의 건물들 뒤로, 잠시 멈춰 선 사람들. 푸른 하늘과 강물이 조화를 이루는 이곳에서, 사람들은 잠시나마 일상의 무게를 내려놓고 자연과 함께 쉼을 찾는다. </t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/1봄_42기_김성근_전자재료공학과.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/1봄_45기_경준하_경영학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/1봄_45기_황서진_컴퓨터정보공학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/1봄_46기_김가영_미디어커뮤니케이션학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/1봄_46기_이재명_미디어커뮤니케이션.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/2여름_42기_김성근_전자재료공학과.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/2여름_42기_변지욱_미디어커뮤니케이션학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/2여름_43기_박하민_건축공학과.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/2여름_43기_신해원_경영학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/2여름_44기_곽철우_정보융합학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/2여름_45기_안예원_국제통상학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/2여름_46기_박예서_전자공학과.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/2여름_46기_배중근_국제학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/2여름_46기_이찬영_국제통상학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/2여름_46기_정성호_동북아문화산업학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/3가을_41기_이민우_화학과.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/3가을_45기_안세은_미디어커뮤니케이션학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/3가을_46기_강민서_전자공학과.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/3가을_46기_박지원_동북아문화산업학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/3가을_46기_방여원_경영학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/3가을_46기_송희수_정보융합학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/3가을_46기_윤영수_미디어커뮤니케이션.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/4겨울_41기_홍자형_스포츠융합과학과.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/4겨울_42기_백채원_영어산업학과.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/4겨울_42기_최승아_컴정공.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/4겨울_44기_이가영_미디어커뮤니케이션학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/4겨울_44기_이아란_정보융합학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/4겨울_46기_김유민_정보융합학부.webp</t>
+  </si>
+  <si>
+    <t>https://www.kapaforever.site/webp/4겨울_46기_유용규_국제학부.webp</t>
   </si>
 </sst>
 </file>
@@ -1175,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243BFB0D-7AC2-2B4E-9AEC-4D6C8DBE03D8}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1221,7 +1218,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="20">
-      <c r="A2" s="9"/>
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1244,11 +1243,13 @@
         <v>135</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="40">
-      <c r="A3" s="9"/>
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1271,11 +1272,13 @@
         <v>133</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1295,14 +1298,16 @@
         <v>137</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="40">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1325,11 +1330,13 @@
         <v>106</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="40">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1352,11 +1359,13 @@
         <v>73</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1379,11 +1388,13 @@
         <v>34</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1406,11 +1417,13 @@
         <v>36</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60">
-      <c r="A9" s="9"/>
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1433,11 +1446,13 @@
         <v>60</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20">
-      <c r="A10" s="9"/>
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1460,11 +1475,13 @@
         <v>40</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="40">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1487,11 +1504,13 @@
         <v>90</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40">
-      <c r="A12" s="9"/>
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
@@ -1514,11 +1533,13 @@
         <v>43</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="40">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1541,11 +1562,13 @@
         <v>120</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="40">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1568,11 +1591,13 @@
         <v>69</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60">
-      <c r="A15" s="9"/>
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1595,11 +1620,13 @@
         <v>79</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
@@ -1622,11 +1649,13 @@
         <v>45</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="40">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1649,11 +1678,13 @@
         <v>94</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20">
-      <c r="A18" s="9"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="40">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1676,11 +1707,13 @@
         <v>118</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20">
-      <c r="A19" s="9"/>
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1703,11 +1736,13 @@
         <v>59</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="40">
-      <c r="A20" s="9"/>
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
@@ -1730,11 +1765,13 @@
         <v>109</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20">
-      <c r="A21" s="9"/>
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1757,11 +1794,13 @@
         <v>64</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="40">
-      <c r="A22" s="9"/>
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1784,11 +1823,13 @@
         <v>42</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="60">
-      <c r="A23" s="9"/>
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1808,14 +1849,16 @@
         <v>52</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20">
-      <c r="A24" s="9"/>
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1838,11 +1881,13 @@
         <v>87</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="40">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1865,11 +1910,13 @@
         <v>114</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="40">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
@@ -1892,11 +1939,13 @@
         <v>51</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20">
-      <c r="A27" s="9"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="40">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
       <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
@@ -1919,11 +1968,13 @@
         <v>130</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="60">
-      <c r="A28" s="9"/>
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
@@ -1946,11 +1997,13 @@
         <v>102</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60">
-      <c r="A29" s="9"/>
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>23</v>
       </c>
@@ -1973,11 +2026,13 @@
         <v>123</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="21" thickBot="1">
-      <c r="A30" s="11"/>
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
       <c r="B30" s="12" t="s">
         <v>23</v>
       </c>
@@ -2000,7 +2055,7 @@
         <v>98</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:8">
